--- a/Excel/digital_audio.xlsx
+++ b/Excel/digital_audio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
   <si>
     <t>English</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Audio pressure waves, or waveforms, look something like this:</t>
   </si>
   <si>
-    <t>Analog recording media such as a phonograph records and cassette tapes represent the shape of the waveform directly, using the depth of the groove for a record or the amount of magnetization for a tape.</t>
-  </si>
-  <si>
     <t>Analog recording can reproduce an impressive array of sounds, but it also suffers from problems of noise.</t>
   </si>
   <si>
@@ -106,12 +103,6 @@
     <t>Sample rates are measured in hertz (Hz), or cycles per second.</t>
   </si>
   <si>
-    <t>This value is the number of samples captured per second in order to represent the waveform. Higher sample rates allow higher audio frequencies to be represented. Provided that the sample rate is more than double the highest audio frequency present, the waveform can be reconstructed exactly from the digital samples. Frequencies that are more than half the sample rate cannot be correctly represented in digital samples, and, if present in the original audio, must be removed before converting</t>
-  </si>
-  <si>
-    <t>to digital. "Half the sample rate" therefore represents an upper limit called the Nyquist frequency, and the analog waveform must be entirely below this limit to be correctly represented digitally. Analog frequencies at this limit or above cannot be correctly represented by the digital samples and would cause a kind of distortion called aliasing.</t>
-  </si>
-  <si>
     <t>The human ear is sensitive to sound patterns with frequencies between approximately 20 Hz and 20000 Hz.</t>
   </si>
   <si>
@@ -127,12 +118,6 @@
     <t>Therefore a common sample rate for audio recordings is 8000 Hz, which is sometimes called speech quality. Note that very steep filtering (called an anti-aliasing filter) is required at the Nyquist frequency in order to prohibit signal above this cutoff point from being folded back into the audible range by the digital converter, and creating the distorting artifacts of aliasing noise.</t>
   </si>
   <si>
-    <t>The most common sample rates measured in Hz are 8000, 16000, 22050, 44100, 48000, 96000 and 192000. Sample rates can also be referred to in kHz or units of 1000 Hz. So in units of kHz the most common rates are expressed as 8 kHz, 16 kHz, 22.05 kHz,</t>
-  </si>
-  <si>
-    <t>44.1 kHz, 48 kHz, 96 kHz and 192 kHz.</t>
-  </si>
-  <si>
     <t>Audacity supports any of these sample rates, however most computer sound cards are limited to no more than 48000 Hz, 96000 Hz or sometimes 192000Hz. Again, the most common sample rate by far is 44100 Hz and many cards will thus default to this rate, whatever other rates they support.</t>
   </si>
   <si>
@@ -283,265 +268,271 @@
     <t>Lossless audio formats are most often used for archiving or production purposes, while smaller lossy audio files are typically used on portable players and in other cases where storage space is limited or exact replication of the audio is unnecessary.</t>
   </si>
   <si>
-    <t>डिजिटल ऑडिओ फंडामेंटल - ऑडसेट मॅन्युअल</t>
-  </si>
-  <si>
-    <t>डिजिटल ऑडिओ मूलतत्त्वे</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>डिजिटल ऑडिओ अ‍ॅनालॉग ध्वनी एका रूपात आणते जेथे ते संगणकावर संग्रहित आणि हाताळू शकतात. ऑडसिटी संपादन, मिसळणे आणि डिजिटल ऑडिओ रेकॉर्डिंगवर प्रभाव लागू करण्यासाठी सॉफ्टवेअर अनुप्रयोग आहे.</t>
-  </si>
-  <si>
     <t>डिजिटल नमुना</t>
   </si>
   <si>
     <t>आम्ही आपल्या कानांनी ऐकत असलेले सर्व आवाज हवेतील दाबांच्या लाटा आहेत.</t>
   </si>
   <si>
-    <t>थॉमस inडिसन यांनी १ the's the मध्ये पहिल्या फोनोग्राफच्या प्रात्यक्षिक प्रक्षेपणानंतर, या दाबाच्या लाटा प्रत्यक्ष माध्यमावर हस्तगत करणे आणि नंतर त्याच दाबाच्या लाटा पुन्हा निर्माण करून पुन्हा त्याचे पुनरुत्पादन करणे शक्य झाले.</t>
-  </si>
-  <si>
     <t>ऑडिओ प्रेशर वेव्ह किंवा वेव्हफॉर्म यासारखे काहीतरी पहा:</t>
   </si>
   <si>
-    <t>फोनोग्राफ रेकॉर्ड आणि कॅसेट टेप सारख्या एनालॉग रेकॉर्डिंग मीडिया रेकॉर्डसाठी खोबणीची खोली किंवा टेपसाठी मॅग्निटायझेशनचे प्रमाण वापरुन थेट वेव्हफॉर्मचा आकार दर्शवितात.</t>
-  </si>
-  <si>
-    <t>एनालॉग रेकॉर्डिंग प्रभावी ध्वनी पुनरुत्पादित करू शकते, परंतु हे आवाजाच्या समस्यांपासून देखील ग्रस्त आहे.</t>
-  </si>
-  <si>
-    <t>विशेष म्हणजे, प्रत्येक वेळी अ‍ॅनालॉग रेकॉर्डिंगची प्रत बनविली जाते तेव्हा अधिक आवाज सादर केला जातो आणि विश्वास कमी होतो.</t>
-  </si>
-  <si>
     <t>हा आवाज कमी केला जाऊ शकतो परंतु पूर्णपणे काढून टाकला जाऊ शकत नाही.</t>
   </si>
   <si>
-    <t>डिजिटल रेकॉर्डिंग वेगळ्या प्रकारे कार्य करते: ते समान-अंतराच्या टाइमपॉईंट्सवर वेव्हफॉर्मचे नमुने घेते, प्रत्येक नमुना अचूक संख्या म्हणून दर्शवते.</t>
-  </si>
-  <si>
-    <t>कॉम्पॅक्ट डिस्क (सीडी), डिजिटल ऑडिओ टेप (डीएटी) किंवा वैयक्तिक संगणकावर संग्रहित असो की डिजिटल रेकॉर्डिंग कालांतराने अवनत होत नाहीत आणि कोणत्याही अतिरिक्त आवाजाची ओळख न करता अचूकपणे कॉपी केली जाऊ शकते.</t>
-  </si>
-  <si>
     <t>खालील प्रतिमा एक नमुना असलेल्या ऑडिओ वेव्हफॉर्मचे वर्णन करते:</t>
   </si>
   <si>
-    <t>कोणताही अतिरिक्त आवाज न ओळखता डिजिटल ऑडिओ संपादित आणि मिश्रित केले जाऊ शकतात.</t>
-  </si>
-  <si>
-    <t>याव्यतिरिक्त, डिजीटल ऑडिओ रेकॉर्डिंगवर बरेच डिजिटल प्रभाव लागू केले जाऊ शकतात, उदाहरणार्थ, पुनर्विभाजन अनुकरण करणे, विशिष्ट फ्रिक्वेन्सी वाढविणे किंवा खेळपट्टी बदलणे.</t>
-  </si>
-  <si>
-    <t>आपल्या संगणकावरून ऑडिओ थेट प्ले करण्याची किंवा रेकॉर्ड करण्याची क्षमता ऑडॅसिटी आपल्या विशिष्ट संगणक हार्डवेअरवर अवलंबून असते.</t>
-  </si>
-  <si>
-    <t>आपल्याकडे मायक्रोफोन किंवा रेकॉर्डिंगसाठी अन्य स्त्रोतामध्ये प्लग इन करण्यासाठी स्पीकर्स किंवा हेडफोन ऐकण्यासाठी बहुतेक डेस्कटॉप संगणक 1/8 इंच (3.5 मिमी) जॅकसह साऊंड कार्डसह येतात.</t>
-  </si>
-  <si>
     <t>बर्‍याच लॅपटॉप कॉम्प्युटरमध्ये स्पीकर्स आणि अंगभूत मायक्रोफोन असतो.</t>
   </si>
   <si>
-    <t>बर्‍याच संगणकांसह येणारे साउंड कार्ड विशेषतः उच्च दर्जाचे नसते, अशा परिस्थितीत आपण बाह्य यूएसबी ऑडिओ इंटरफेस वापरण्याचा विचार करू शकता.</t>
-  </si>
-  <si>
-    <t>प्लेबॅक आणि रेकॉर्डिंगसाठी ऑडॅसिटी कशी सेट करावी याबद्दल अधिक माहितीसाठी ऑडसीटी सेटअप आणि कॉन्फिगरेशन पहा.</t>
-  </si>
-  <si>
-    <t>डिजिटल ऑडिओ गुणवत्ता</t>
-  </si>
-  <si>
-    <t>डिजिटल ऑडिओ रेकॉर्डिंगची गुणवत्ता दोन घटकांवर अवलंबून असते: नमुना दर आणि नमुना स्वरूप किंवा थोडी खोली.</t>
-  </si>
-  <si>
-    <t>प्रत्येक नमुना मधील नमुना दर किंवा बिट्सची संख्या वाढविणे रेकॉर्डिंगची गुणवत्ता वाढवते, परंतु संगणक किंवा डिस्कवरील ऑडिओ फायलीद्वारे वापरलेल्या जागेचे प्रमाण देखील वाढवते.</t>
-  </si>
-  <si>
     <t>नमुना दर</t>
   </si>
   <si>
     <t>नमुने दर हर्ट्ज (हर्ट्ज) किंवा प्रति सेकंद चक्रात मोजले जातात.</t>
   </si>
   <si>
-    <t>हे मूल्य वेव्हफॉर्मचे प्रतिनिधित्व करण्यासाठी प्रति सेकंद हस्तगत केलेल्या नमुन्यांची संख्या आहे. उच्च नमुना दर उच्च ऑडिओ वारंवारतेचे प्रतिनिधित्व करण्यास अनुमती देतात. प्रदान केलेला नमुना दर सध्याच्या ऑडिओ फ्रीक्वेन्सीपेक्षा दुप्पट आहे, तर डिजिटल नमुन्यांमधून वेवफॉर्मची पुनर्रचना केली जाऊ शकते. अर्ध्यापेक्षा जास्त नमुना दराची वारंवारता डिजिटल नमुन्यांमध्ये योग्यरित्या दर्शविली जाऊ शकत नाहीत आणि मूळ ऑडिओमध्ये असल्यास ती रूपांतरित करण्यापूर्वी काढली जाणे आवश्यक आहे.</t>
-  </si>
-  <si>
-    <t>डिजिटल करण्यासाठी. "अर्धा नमुना दर" म्हणून एनक्विस्ट फ्रिक्वेन्सी नावाची अप्पर मर्यादा दर्शवते आणि अ‍ॅनालॉग वेव्हफॉर्म योग्यरित्या डिजिटलपणे प्रतिनिधित्व करण्यासाठी या मर्यादेच्या खाली असणे आवश्यक आहे. या मर्यादेवरील किंवा त्यावरील एनालॉग फ्रिक्वेन्सी डिजिटल नमुन्यांद्वारे योग्यरित्या दर्शविल्या जाऊ शकत नाहीत आणि एक प्रकारचे विकृती होऊ शकते ज्याला अलियासिंग म्हणतात.</t>
-  </si>
-  <si>
-    <t>मानवी कान अंदाजे 20 हर्ट्ज आणि 20000 हर्ट्ज दरम्यान वारंवारतेसह ध्वनी नमुन्यांशी संवेदनशील असतो.</t>
-  </si>
-  <si>
-    <t>त्या श्रेणी बाहेर ध्वनी ऐकण्यायोग्य नाहीत. म्हणूनच 40000 हर्ट्जचा नमुना दर मानवी श्रवणशक्तीच्या श्रेणीत पुनरुत्पादित करण्यासाठी आवश्यक किमान परिपूर्ण आवश्यक आहे. उच्च दर (ओव्हर्सॅम्पलिंग म्हणतात) सहसा Nyquist वारंवारतेभोवती कृत्रिम वस्तूंपासून दूर राहण्यासाठी पुरेसे फिल्टरिंग टाळण्यासाठी वापरले जातात.</t>
-  </si>
-  <si>
-    <t>ऑडिओ सीडीद्वारे वापरलेला नमुना दर 44100 हर्ट्ज आहे.</t>
-  </si>
-  <si>
-    <t>जरी मानवी 4000 हर्ट्जपेक्षा जास्त वारंवारता दूर केली गेली तर मानवी भाषण सुगम आहे; खरं तर टेलीफोन फक्त 200 हर्ट्ज आणि 4000 हर्ट्ज दरम्यान फ्रिक्वेन्सी प्रसारित करतात.</t>
-  </si>
-  <si>
-    <t>म्हणून ऑडिओ रेकॉर्डिंगसाठी सामान्य नमुना दर 8000 हर्ट्ज आहे, ज्यास कधीकधी भाषण गुणवत्ता देखील म्हटले जाते. लक्षात घ्या की या कटऑफ पॉईंटच्या वरील सिग्नलला डिजिटल कन्व्हर्टरद्वारे पुन्हा ऐकू येण्याजोग्या रेंजमध्ये दुमडण्यापासून प्रतिबंधित करण्यासाठी आणि अलियझिंग आवाजाची विकृत कलाकृती तयार करण्यासाठी, अत्यंत स्टिल्टिंग (ज्याला अँटी-एलियाझिंग फिल्टर म्हटले जाते) आवश्यक आहे.</t>
-  </si>
-  <si>
-    <t>हर्ट्जमध्ये मोजले जाणारे सर्वात सामान्य नमुन्याचे दर आहेत 8000, 16000, 22050, 44100, 48000, 96000 आणि 192000. नमुना दर देखील केएचझेड किंवा 1000 हर्ट्जच्या युनिट्समध्ये संदर्भित केला जाऊ शकतो. म्हणून केएचझेडच्या युनिट्समध्ये सर्वात सामान्य दर 8 केएचझेड, 16 केएचझेड, 22.05 केएचझेड,</t>
-  </si>
-  <si>
-    <t>44.1 केएचझेड, 48 केएचझेड, 96 केएचझेड आणि 192 केएचझेड.</t>
-  </si>
-  <si>
-    <t>धडधडी यापैकी कोणत्याही नमुना दराचे समर्थन करते, तथापि बहुतेक संगणक ध्वनी कार्ड 48000 हर्ट्ज, 96000 हर्ट्ज किंवा कधीकधी 192000 हर्ट्जपेक्षा मर्यादित असतात. पुन्हा, आतापर्यंतचा सर्वात सामान्य नमुना दर 44100 हर्ट्झ आहे आणि बर्‍याच कार्डे या रेटला डीफॉल्ट करतील, इतर कोणतेही दर समर्थन करतात.</t>
-  </si>
-  <si>
     <t>खालील प्रतिमेमध्ये डाव्या अर्ध्या भागास कमी नमुना दर आहे आणि उजव्या अर्ध्या भागामध्ये उच्च नमुना दर आहे (उदा. उच्च रिझोल्यूशन):</t>
   </si>
   <si>
     <t>नमुना स्वरूप</t>
   </si>
   <si>
-    <t>ऑडिओ गुणवत्तेचा दुसरा उपाय म्हणजे नमुना स्वरूप (किंवा थोडी खोली) आहे, जे सहसा प्रत्येक नमुना दर्शविण्यासाठी वापरल्या जाणार्‍या संगणक बिटच्या संख्येद्वारे मोजले जाते.</t>
-  </si>
-  <si>
     <t>जितके अधिक बिट वापरले जातात, तितकेच प्रत्येक नमुनाचे प्रतिनिधित्व.</t>
   </si>
   <si>
-    <t>बिट्सची संख्या वाढविणे ऑडिओ रेकॉर्डिंगची अधिकतम गतिशील श्रेणी देखील वाढवते, दुस words्या शब्दात, प्रतिनिधित्व केले जाऊ शकते अशा आवाजात सर्वात मोठा आणि कोमल आवाजातील आवाजातील फरक.</t>
-  </si>
-  <si>
     <t>डायनॅमिक श्रेणी डेसिबल (डीबी) मध्ये मोजली जाते.</t>
   </si>
   <si>
-    <t>मानवी कान कमीतकमी 90 डीबीच्या गतिशील श्रेणीसह ध्वनी पाहू शकतात. तथापि, जेव्हा शक्य असेल तेव्हा 90 90 डीबीपेक्षा जास्तच्या डायनॅमिक श्रेणीसह डिजिटल ऑडिओ रेकॉर्ड करणे चांगली कल्पना आहे जेणेकरून जास्त मऊ असलेले आवाज जास्तीत जास्त विश्वासाने वाढविले जाऊ शकतात. लक्षात ठेवा की उपलब्ध डायनॅमिक श्रेणीचा फायदा घेण्यासाठी सामान्यत: निम्न स्तरावर नोंदविलेले सिग्नल वाढविले जाऊ शकतात (म्हणजेच सामान्य केले आहेत) परंतु निम्न स्तरावरील सिग्नलचे रेकॉर्डिंग सर्व उपलब्ध बिट खोलीचा वापर करणार नाही. निराकरण झालेल्या या नुकसानाची संपूर्णता डिजिटल वेव्हफॉर्मच्या एकूण पातळीवर सामान्य करुन पुन्हा मिळविली जाऊ शकत नाही.</t>
-  </si>
-  <si>
     <t>सामान्य नमुना स्वरूप आणि त्यांच्या संबंधित गतिमान श्रेणीमध्ये हे समाविष्ट आहे:</t>
   </si>
   <si>
-    <t>8-बिट पूर्णांक: 48 डीबी</t>
-  </si>
-  <si>
-    <t>16-बिट पूर्णांक: 96 डीबी</t>
-  </si>
-  <si>
-    <t>24-बिट पूर्णांक: 145 डीबी</t>
-  </si>
-  <si>
-    <t>32-बिट फ्लोटिंग पॉईंट: जवळ-अनंत डीबी</t>
-  </si>
-  <si>
-    <t>लक्षात ठेवा हार्डवेअर आणि इनपुट आणि आउटपुट कन्व्हर्टरच्या क्षमतेमुळे डायनॅमिक श्रेणीवर व्यावहारिक मर्यादा आहेत. हे व्यावहारिक मर्यादा 16-बिटसाठी 90 डीबीसारखेच बनवते.</t>
-  </si>
-  <si>
-    <t>इतर नमुने स्वरूप जसे की एडीपीसीएम अंदाजे 16-बिट ऑडिओसह संकुचित 4-बिट नमुन्यांसह.</t>
-  </si>
-  <si>
     <t>धृष्टता यापैकी अनेक स्वरूपने आयात करु शकते, परंतु त्या चांगल्या कम्प्रेशन पद्धतींपेक्षा अधिक क्वचितच वापरल्या जातील.</t>
   </si>
   <si>
-    <t>ऑडिओ सीडी आणि बर्‍याच संगणक ऑडिओ फाइल स्वरूपांमध्ये 16-बिट पूर्णांक वापरतात. ऑडसिटी अंतर्गत 32-बिट फ्लोटिंग-पॉईंट सॅम्पल वापरते आणि आवश्यक असल्यास, अंतिम मिश्रित निर्यात केल्यावर नमुना बिट खोलीमध्ये रूपांतरित करते. रेकॉर्डिंग दरम्यान ऑडिटीचे डीफॉल्ट नमुना स्वरूप गुणवत्ता प्राधान्यांमध्ये कॉन्फिगर केले जाऊ शकते किंवा ऑडिओ ट्रॅक ड्रॉपडाउन मेनूमधील प्रत्येक ट्रॅकसाठी स्वतंत्रपणे सेट केले जाऊ शकते. प्लेबॅक दरम्यान, प्रकल्पातील भिन्न नमुना स्वरूप असलेल्या कोणत्याही ट्रॅकमधील ऑडिओ गुणवत्ता प्राधान्यांमधील रीअल-टाइम रूपांतरण सेटिंग्जचा वापर करुन फ्लायवर पुन्हा तयार केला जाईल. प्रक्रिया करताना, मिश्रित करताना किंवा निर्यात करताना उच्च-गुणवत्तेची रूपांतरण सेटिंग्ज वापरली जातात.</t>
-  </si>
-  <si>
     <t>खालील प्रतिमेत डाव्या अर्ध्या भागामध्ये काही बिट्ससह नमुना स्वरूप आहे आणि उजव्या अर्ध्यामध्ये अधिक बिटसह नमुना स्वरूप आहे.</t>
   </si>
   <si>
     <t>आपण उभ्या ग्रिडलाइन दरम्यानचे अंतर म्हणून नमुना दर विचार केल्यास, नमुना स्वरूप हे क्षैतिज ग्रिडलाइन दरम्यानचे अंतर आहे.</t>
   </si>
   <si>
-    <t>ऑडिओ फायलीचा आकार</t>
-  </si>
-  <si>
-    <t>ऑडिओ फायली खूप मोठ्या असतात, आपण कार्य केलेल्या बर्‍याच फायलींपेक्षा कदाचित खूपच मोठ्या असतात (आपण व्हिडियो फाइल्ससह कार्य केल्याशिवाय).</t>
-  </si>
-  <si>
     <t>कॉम्प्रप्रेसित ऑडिओ फाईलचा आकार निश्चित करण्यासाठी, नमुना दर (उदाहरणार्थ 44100 हर्ट्ज) नमुना स्वरूप बिट रेट (उदाहरणार्थ 16-बिट) चॅनेलच्या संख्येने (स्टिरीओसाठी 2) गुणाकार करा.</t>
   </si>
   <si>
-    <t>संपूर्णपणे पूर्ण 74-मिनिटांच्या स्टिरिओ ऑडिओ सीडीमध्ये 6 अब्ज बिट जास्त लागतात.</t>
-  </si>
-  <si>
-    <t>बाइटची संख्या मिळविण्यासाठी हे 8 ने विभाजित करा; ऑडिओ सीडी 800 मेगाबाइट (एमबी) पेक्षा थोडी कमी आहे.</t>
-  </si>
-  <si>
-    <t>खाली संकुचित ऑडिओ पहा.</t>
-  </si>
-  <si>
     <t>क्लिपिंग</t>
   </si>
   <si>
-    <t>डिजिटल ऑडिओची एक मर्यादा ही आहे की बर्‍याच कारणांसाठी ते साउंड प्रेशर लाटा हाताळू शकत नाही जे हाताळण्यासाठी तयार केलेल्या कमाल पातळीपेक्षा जास्त आहे.</t>
-  </si>
-  <si>
-    <t>जेव्हा सिग्नल रेकॉर्ड केला जातो जो +/- 1.0 रेषीय किंवा 0 डीबीच्या कमाल पातळीपेक्षा जास्त असतो तेव्हा श्रेणीच्या बाहेरील नमुने जास्तीत जास्त मूल्यावर क्लीप केले जातात, याप्रमाणेः</t>
-  </si>
-  <si>
-    <t>क्लिपिंगसह रेकॉर्ड केलेला आवाज विकृत आणि कठोर वाटेल.</t>
-  </si>
-  <si>
     <t>अशी काही तंत्रे आहेत जी क्लिपिंगमुळे थोडासा आवाज काढून टाकू शकतात, परंतु रेकॉर्डिंग करताना क्लिपिंग टाळणे नेहमीच श्रेयस्कर आहे.</t>
   </si>
   <si>
-    <t>आपल्या इनपुट स्त्रोतावरील (मायक्रोफोन, कॅसेट प्लेयर, रेकॉर्ड प्लेयर) व्हॉल्यूम बदला आणि ऑडसिटीचे इनपुट व्हॉल्यूम कंट्रोल सेट करा (मिक्सर टूलबारमध्ये) जसे की वेपफॉर्म शक्य तितक्या मोठे आहे (जास्तीत जास्त विश्वासासाठी) क्लिपिंगशिवाय.</t>
-  </si>
-  <si>
-    <t>लक्षात ठेवा ऑडॅसिटीच्या डीफॉल्ट 32-बिट फ्लोट नमुना स्वरूपात, जास्तीत जास्तपेक्षा जास्त प्रमाणात कायदेशीररित्या कॅप्चर केलेले नमुने मूल्ये संग्रहित केली जाऊ शकतात परंतु जरी निर्यात 32-बिट फ्लोट फाइलमध्ये जतन केली गेली तरीही ती अद्याप कोणत्याही पारंपारिक पुनरुत्पादनाच्या उपकरणांवर विकृत होऊ शकतात. जर ऑडसिटीने मर्यादेपेक्षा जास्त वैध नमुने आढळले तर एम्प्लिफाई इफेक्ट नकारात्मक डीफॉल्ट "एम्प्लिफिकेशन (डीबी)" मूल्य दर्शवेल आणि आपण मूळ सेटिंग्स न गमावता शिखर प्रवर्धनास जास्तीत जास्त 0 डीबी पर्यंत कमी करण्यासाठी या सेटिंगवर ओके क्लिक करू शकता. वेव्हफॉर्म</t>
-  </si>
-  <si>
-    <t>संकुचित ऑडिओ</t>
-  </si>
-  <si>
-    <t>डिजिटल ऑडिओ फायली इतक्या मोठ्या असल्याने, शक्य तेव्हा कमी नमुना दर वापरले जायचे.</t>
-  </si>
-  <si>
-    <t>1991 मध्ये, एमपी 3 (एमपीईजी प्रथम, स्तर 3) मानकांनी सर्व काही बदलले.</t>
-  </si>
-  <si>
-    <t>एमपी 3 हे एक हानीकारक कॉम्प्रेशन तंत्र आहे जे गुणवत्तेवर आश्चर्यकारकपणे कमी प्रभाव टाकून डिजिटल ऑडिओ फाईलचे फाइल आकार नाटकीयरित्या कमी करू शकते.</t>
-  </si>
-  <si>
-    <t>सीडी-गुणवत्तेच्या ऑडिओचा एक सेकंद 1.4 मेगाबिट घेते, तर एमपी 3 फाइल्ससाठी सामान्य बिट रेट 128 केबीपीएस आहे, जो 10x पेक्षा जास्तचे कॉम्प्रेशन घटक आहे!</t>
-  </si>
-  <si>
-    <t>आमचे कान आणि मेंदू कसे कार्य करतात याबद्दलच्या मनोवैज्ञानिक मॉडेलच्या आधारे, मानवाकडे अत्यंत संवेदनशील नसलेल्या ऑडिओ वेव्हफॉर्मविषयी तपशील हुशारीने "दूर फेकून" एमपी 3 कार्य करते.</t>
-  </si>
-  <si>
-    <t>सर्व एमपी 3 फायली एकसारख्या तयार केल्या जात नाहीत; भिन्न सायकोएकॉस्टिक मॉडेल ऑडिओ फाईलमध्ये भिन्न प्रमाणात ज्ञात विकृती आणतील.</t>
-  </si>
-  <si>
-    <t>पाठवल्याप्रमाणे धृष्टता एमपी 3 फायली आयात करु शकते परंतु ऑडसिटीमधून एमपी 3 फायली निर्यात करण्यासाठी कृपया आपल्या संगणकावर पर्यायी लाम ली एमपी 3 एन्कोडिंग लायब्ररी जोडा.</t>
-  </si>
-  <si>
-    <t>चांगल्या स्पीकर्ससह, बहुतेक लोक सीडीवरून 128 केबीपीएस एमपी 3 आणि एक कंप्रप्रेसित ऑडिओ फाईलमधील फरक ऐकू शकतात. 256 केबीपीएस आणि 320 केबीपीएस एमपी 3 फायली उच्च गुणवत्तेला प्राधान्य देणार्‍या ऑडिओफाइलमध्ये अधिक लोकप्रिय आहेत.</t>
-  </si>
-  <si>
-    <t>इतर बरेच हानीकारक संकुचित ऑडिओ फाइल स्वरूप आहेत.</t>
-  </si>
-  <si>
-    <t>ऑडॅसिटी संपूर्णपणे ओग व्हॉर्बिस स्वरूपनास समर्थन देते, जे एमपी 3 प्रमाणेच आहे परंतु पूर्णपणे मुक्त, पेटंट-मुक्त मानक आहे.</t>
-  </si>
-  <si>
-    <t>कालांतराने ओग व्हॉर्बिस फायलीची गुणवत्ता एमपी 3 च्या गुणवत्तेला मागे टाकण्यासाठी आली आहे आणि त्याचे स्वरूप अधिक विस्तारनीय आहे म्हणून अधिक सुधारणा शक्य आहेत.</t>
-  </si>
-  <si>
-    <t>ओग व्हॉर्बिस आपल्या स्वतःच्या ऑडिओसाठी एक उत्तम निवड आहे, तथापि वास्तविकता अशी आहे की आयपॉड्स आणि इतर पोर्टेबल ऑडिओ प्लेयर्स सारख्या बर्‍याच उपकरणे एमपी 3 चे समर्थन करतात परंतु ओग व्हॉर्बिस अद्याप नाही.</t>
-  </si>
-  <si>
-    <t>इतर सुप्रसिद्ध कम्प्रेशन पद्धतींमध्ये एटीआरएसी, सोनी मिनीडिस्क रेकॉर्डर, विंडोज मीडिया ऑडिओ (डब्ल्यूएमए) आणि एएसी यांचा समावेश आहे. ऑडसिटी वैकल्पिक FFmpeg लायब्ररी जोडून अधिक स्वरूपाचे समर्थन करते.</t>
-  </si>
-  <si>
-    <t>लॉसलेस कॉम्प्रेशन</t>
-  </si>
-  <si>
-    <t>लॉसलेस कॉम्प्रेशन गुणवत्ता न गमावता फायलीचा आकार कमी करते. फाईलचे आकार कमी करण्याची ही जादूची पद्धत ऑडिओ फायलींवर लागू केली जाऊ शकते. एमपी 3 हानीकारक कॉम्प्रेशन वापरत असताना, नवीन कॉम्प्रेशन अल्गोरिदम, जसे की एफएलएसी आणि Appleपल लॉसलेस कॉम्प्रेशन, लॉलेसलेस कॉम्प्रेस केलेले ऑडिओ फायली तयार करण्यासाठी वापरले जाऊ शकतात.</t>
-  </si>
-  <si>
-    <t>मुळात अशा प्रकारचे कॉम्प्रेशन मूळ फाइलचा डेटा अधिक कार्यक्षम मार्गाने पुन्हा लिहितात. तथापि, कोणतीही गुणवत्ता गमावली नसल्यामुळे, परिणामी फायली हानीकारक कॉम्प्रेशनसह संकलित केलेल्या प्रतिमा आणि ऑडिओ फायलींपेक्षा जास्त मोठी असतात. उदाहरणार्थ, हानीकारक कॉम्प्रेशनचा वापर करून संकुचित केलेली फाईल मूळ आकाराच्या दहाव्या आकाराची असू शकते, तर लॉशलेस कॉम्प्रेशन मूळ आकाराच्या अर्ध्यापेक्षा लहान फाइल तयार करण्याची शक्यता नसते.</t>
-  </si>
-  <si>
-    <t>दोषरहित ऑडिओ स्वरूप बहुतेक वेळा संग्रहण किंवा उत्पादन हेतूसाठी वापरले जातात, तर लहान हानीकारक ऑडिओ फायली विशेषत: पोर्टेबल प्लेयर्सवर वापरल्या जातात आणि स्टोरेज स्पेस मर्यादित असल्यास किंवा ऑडिओची अचूक प्रतिकृती अनावश्यक असते.</t>
+    <t>डिजिटल ध्वनी मूलतत्त्वे - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनी मूलतत्त्वे</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनी अ‍ॅनालॉग ध्वनी एका रूपात आणते जेथे ते संगणकावर संग्रहित आणि हाताळू शकतात. ओड्यासिटी संपादन, मिसळणे आणि डिजिटल ऑडिओ   ध्वनिमुद्रणावर प्रभाव लागू करण्यासाठी सॉफ्टवेअर अनुप्रयोग आहे.</t>
+  </si>
+  <si>
+    <t>थॉमस एडिसन यांनी १८७७ मध्ये पहिल्या फोनोग्राफच्या प्रात्यक्षिक प्रक्षेपणानंतर, या दाबाच्या लाटा प्रत्यक्ष माध्यमावर हस्तगत करणे आणि नंतर त्याच दाबाच्या लाटा पुन्हा निर्माण करून पुन्हा त्याचे पुनरुत्पादन करणे शक्य झाले.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog recording media such as a phonograph records and cassette tapes represent the shape of the waveform directly, using the depth of the groove for a record or the amount of magnetization for a tape.  </t>
+  </si>
+  <si>
+    <t>फोनोग्राफ ध्वनिमुद्रण आणि कॅसेट टेप सारख्या एनालॉग ध्वनिमुद्रण माध्यमे ध्वनिमुद्रणासाठी खोबणीची खोली किंवा टेपसाठी मॅग्निटायझेशनचे प्रमाण वापरुन थेट वेव्हफॉर्मचा आकार दर्शवितात.</t>
+  </si>
+  <si>
+    <t>एनालॉग ध्वनिमुद्रण प्रभावी ध्वनी पुनरुत्पादित करू शकते, परंतु हे आवाजाच्या समस्यांपासून देखील ग्रस्त आहे.</t>
+  </si>
+  <si>
+    <t>विशेष म्हणजे, प्रत्येक वेळी अ‍ॅनालॉग ध्वनिमुद्रणाची प्रत बनविली जाते तेव्हा अधिक आवाज सादर केला जातो आणि विश्वास कमी होतो.</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनिमुद्रण वेगळ्या प्रकारे कार्य करते: ते समान-अंतराच्या वेळापत्रकावर वेव्हफॉर्मचे नमुने घेते, प्रत्येक नमुना अचूक संख्या म्हणून दर्शवते.</t>
+  </si>
+  <si>
+    <t>कॉम्पॅक्ट डिस्क (सीडी), डिजिटल ऑडिओ टेप (डीएटी) किंवा वैयक्तिक संगणकावर संग्रहित असो की डिजिटल ध्वनिमुद्रण कालांतराने अवनत होत नाहीत आणि कोणत्याही अतिरिक्त आवाजाची ओळख न करता अचूकपणे नक्कल केली जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>कोणताही अतिरिक्त आवाज न ओळखता डिजिटल ध्वनी संपादित आणि मिश्रित केले जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>याव्यतिरिक्त, डिजीटल ऑडिओ ध्वनिमुद्रणावर बरेच डिजिटल प्रभाव लागू केले जाऊ शकतात, उदाहरणार्थ, पुनर्विभाजन अनुकरण करणे, विशिष्ट वारंवारता वाढविणे किंवा ध्वनीची उच्चनीचता बदलणे.</t>
+  </si>
+  <si>
+    <t>आपल्या संगणकावरून ध्वनी थेट प्ले करण्याची किंवा ध्वनिमुद्रण करण्याची क्षमता ओड्यासिटी आपल्या विशिष्ट संगणक हार्डवेअरवर अवलंबून असते.</t>
+  </si>
+  <si>
+    <t>आपल्याकडे मायक्रोफोन किंवा ध्वनिमुद्रणासाठी अन्य स्त्रोतामध्ये प्लग इन करण्यासाठी स्पीकर्स किंवा हेडफोन ऐकण्यासाठी बहुतेक डेस्कटॉप संगणक १/८ इंच (३.५ मिमी) जॅकसह साऊंड कार्डसह येतात.</t>
+  </si>
+  <si>
+    <t>बर्‍याच संगणकांसह येणारे ध्वनी कार्ड विशेषतः उच्च दर्जाचे नसते, अशा परिस्थितीत आपण बाह्य यूएसबी ध्वनी मुखपृष्ठ वापरण्याचा विचार करू शकता.</t>
+  </si>
+  <si>
+    <t>प्लेबॅक आणि ध्वनिमुद्रणासाठी ओड्यासिटी कशी सेट करावी याबद्दल अधिक माहितीसाठी ओड्यासिटी सेटअप आणि कॉन्फिगरेशन पहा.</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनी गुणवत्ता</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनी ध्वनिमुद्रणची गुणवत्ता दोन घटकांवर अवलंबून असते: नमुना दर आणि नमुना स्वरूप किंवा थोडी खोली.</t>
+  </si>
+  <si>
+    <t>प्रत्येक नमुना मधील नमुना दर किंवा बिट्सची संख्या वाढविणे ध्वनिमुद्रणची गुणवत्ता वाढवते, परंतु संगणक किंवा डिस्कवरील ध्वनी  धारिकाद्वारे वापरलेल्या जागेचे प्रमाण देखील वाढवते.</t>
+  </si>
+  <si>
+    <t>This value is the number of samples captured per second in order to represent the waveform. Higher sample rates allow higher audio frequencies to be represented. Provided that the sample rate is more than double the highest audio frequency present, the waveform can be reconstructed exactly from the digital samples. Frequencies that are more than half the sample rate cannot be correctly represented in digital samples, and, if present in the original audio, must be removed before converting  to digital.</t>
+  </si>
+  <si>
+    <t>हे मूल्य वेव्हफॉर्मचे प्रतिनिधित्व करण्यासाठी प्रति सेकंद हस्तगत केलेल्या नमुन्यांची संख्या आहे. उच्च नमुना दर उच्च ध्वनी वारंवारतेचे प्रतिनिधित्व करण्यास अनुमती देतात. प्रदान केलेला नमुना दर सध्याच्या ध्वनी वारंवारतेपेक्षा दुप्पट आहे, तर डिजिटल नमुन्यांमधून वेवफॉर्मची पुनर्रचना केली जाऊ शकते. नमुने दरापेक्षा अर्ध्यापेक्षा जास्त वारंवारता डिजिटल नमुन्यांमध्ये योग्यरितीने दर्शविली जाऊ शकत नाहीत आणि मूळ ध्वनीमध्ये असल्यास ती डिजिटलमध्ये रुपांतरित करण्यापूर्वी काढली जाणे आवश्यक आहे.</t>
+  </si>
+  <si>
+    <t>अर्धा नमुना दर म्हणून न्याक्वीस्त वारंवारता नावाची अप्पर मर्यादा दर्शवते आणि अ‍ॅनालॉग वेव्हफॉर्म योग्यरित्या डिजिटल स्वरुपात प्रतिनिधित्व करण्यासाठी या मर्यादेच्या खाली असणे आवश्यक आहे. या मर्यादेवरील किंवा त्यावरील एनालॉग वारंवारता डिजिटल नमुन्यांद्वारे योग्यरित्या दर्शविल्या जाऊ शकत नाहीत आणि एक प्रकारचे विकृती होऊ शकते ज्याला अलियासिंग म्हणतात.</t>
+  </si>
+  <si>
+    <t>Half the sample rate therefore represents an upper limit called the Nyquist frequency, and the analog waveform must be entirely below this limit to be correctly represented digitally. Analog frequencies at this limit or above cannot be correctly represented by the digital samples and would cause a kind of distortion called aliasing.</t>
+  </si>
+  <si>
+    <t>मानवी कान अंदाजे २० हर्ट्ज आणि २०००० हर्ट्ज दरम्यान वारंवारतेसह ध्वनी नमुन्यांशी संवेदनशील असतो.</t>
+  </si>
+  <si>
+    <t>ऑडिओ सीडीद्वारे वापरलेला नमुना दर ४४१०० हर्ट्ज आहे.</t>
+  </si>
+  <si>
+    <t>त्या श्रेणी बाहेर ध्वनी ऐकण्यायोग्य नाहीत. म्हणूनच ४०००० हर्ट्जचा नमुना दर मानवी श्रवणशक्तीच्या श्रेणीत पुनरुत्पादित करण्यासाठी आवश्यक किमान परिपूर्ण आवश्यक आहे. उच्च दर (ओव्हर्सॅम्पलिंग म्हणतात) सहसा न्याक्वीस्ट वारंवारतेभोवती कृत्रिम वस्तूंपासून दूर राहण्यासाठी पुरेसे चाळणी टाळण्यासाठी वापरले जातात.</t>
+  </si>
+  <si>
+    <t>जरी मानवी ४००० हर्ट्जपेक्षा जास्त वारंवारता दूर केली गेली तर मानवी भाषण सुगम आहे; खरं तर टेलीफोन फक्त २०० हर्ट्ज आणि ४००० हर्ट्ज दरम्यान वारंवारता प्रसारित करतात.</t>
+  </si>
+  <si>
+    <t>म्हणून ध्वनिमुद्रणासाठी सामान्य नमुना दर ८००० हर्ट्ज आहे, ज्यास कधीकधी भाषण गुणवत्ता देखील म्हटले जाते. लक्षात घ्या की या कटऑफ पॉईंटच्या वरील सिग्नलला डिजिटल कन्व्हर्टरद्वारे पुन्हा ऐकू येण्याजोग्या रेंजमध्ये दुमडण्यापासून प्रतिबंधित करण्यासाठी आणि अलियझिंग आवाजाची विकृत कलाकृती तयार करण्यासाठी, अत्यंत स्टिल्टिंग (ज्याला अँटी-एलियाझिंग फिल्टर म्हटले जाते) आवश्यक आहे.</t>
+  </si>
+  <si>
+    <t>The most common sample rates measured in Hz are 8000, 16000, 22050, 44100, 48000, 96000 and 192000. Sample rates can also be referred to in kHz or units of 1000 Hz. So in units of kHz the most common rates are expressed as 8 kHz, 16 kHz, 22.05 kHz,  44.1 kHz, 48 kHz, 96 kHz and 192 kHz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">हर्ट्जमध्ये मोजले जाणारे सर्वात सामान्य नमुन्याचे दर आहेत ८०००, १६०००, २२०५०, ४४१००, ४८०००, ९६००० आणि १९२०००. नमुना दर देखील केएचझेड किंवा १००० हर्ट्जच्या युनिटमध्ये संदर्भित केला जाऊ शकतो. म्हणून केएचझेडच्या युनिट्समध्ये सर्वात सामान्य दर ८ केएचझेड, १६ केएचझेड, २२.०५ केएचझेड, ४४.१ केएचझेड, ४८ केएचझेड, ९६ केएचझेड आणि १९२ केएचझेड म्हणून दर्शविले जातात. </t>
+  </si>
+  <si>
+    <t>धडधडी यापैकी कोणत्याही नमुना दराचे समर्थन करते, तथापि बहुतेक संगणक ध्वनी कार्ड ४८००० हर्ट्ज, ९६००० हर्ट्ज किंवा कधीकधी १९२००० हर्ट्जपेक्षा मर्यादित असतात. पुन्हा, आतापर्यंतचा सर्वात सामान्य नमुना दर ४४१०० हर्ट्झ आहे आणि बर्‍याच कार्डे या रेटला डीफॉल्ट करतील, इतर कोणतेही दर समर्थन करतात.</t>
+  </si>
+  <si>
+    <t>ध्वनी गुणवत्तेचा दुसरा उपाय म्हणजे नमुना स्वरूप (किंवा थोडी खोली) आहे, जे सहसा प्रत्येक नमुना दर्शविण्यासाठी वापरल्या जाणार्‍या संगणक बिटच्या संख्येद्वारे मोजले जाते.</t>
+  </si>
+  <si>
+    <t>बिट्सची संख्या वाढविणे ध्वनिमुद्रणाची अधिकतम गतिशील श्रेणी देखील वाढवते, दुसऱ्या शब्दात, प्रतिनिधित्व केले जाऊ शकते अशा आवाजात सर्वात मोठा आणि कोमल आवाजातील आवाजातील फरक.</t>
+  </si>
+  <si>
+    <t>मानवी कान कमीतकमी ९० डीबीच्या गतिशील श्रेणीसह ध्वनी पाहू शकतात. तथापि, जेव्हा शक्य असेल तेव्हा ९० ९० डीबीपेक्षा जास्तच्या गतिशील श्रेणीसह डिजिटल ध्वनिमुद्रण करणे चांगली कल्पना आहे जेणेकरून जास्त मऊ असलेले आवाज जास्तीत जास्त विश्वासाने वाढविले जाऊ शकतात. लक्षात ठेवा की उपलब्ध गतिशील श्रेणीचा फायदा घेण्यासाठी सामान्यत: निम्न स्तरावर नोंदविलेले सिग्नल वाढविले जाऊ शकतात (म्हणजेच सामान्य केले आहेत) परंतु निम्न स्तरावरील सिग्नलचे रेकॉर्डिंग सर्व उपलब्ध बिट खोलीचा वापर करणार नाही. निराकरण झालेल्या या नुकसानाची संपूर्णता डिजिटल वेव्हफॉर्मच्या एकूण पातळीवर सामान्य करुन पुन्हा मिळविली जाऊ शकत नाही.</t>
+  </si>
+  <si>
+    <t>८-बिट पूर्णांक: ४८ डीबी</t>
+  </si>
+  <si>
+    <t>२४-बिट पूर्णांक: १४५ डीबी</t>
+  </si>
+  <si>
+    <t>३२-बिट फ्लोटिंग पॉईंट: जवळ-अनंत डीबी</t>
+  </si>
+  <si>
+    <t>लक्षात ठेवा हार्डवेअर आणि इनपुट आणि आउटपुट कन्व्हर्टरच्या क्षमतेमुळे गतिमान श्रेणीवर व्यावहारिक मर्यादा आहेत. हे व्यावहारिक मर्यादा १६-बिटसाठी ९० डीबीसारखेच बनवते.</t>
+  </si>
+  <si>
+    <t>इतर नमुने स्वरूप जसे की एडीपीसीएम अंदाजे १६-बिट ध्वनीसह संकुचित ४-बिट नमुन्यांसह.</t>
+  </si>
+  <si>
+    <t>ऑडिओ सीडी आणि बर्‍याच संगणक ध्वनी धारिका स्वरूपांमध्ये १६-बिट पूर्णांक वापरतात. ओड्यासिटी अंतर्गत ३२-बिट फ्लोटिंग-पॉईंट नमुना वापरते आणि आवश्यक असल्यास, अंतिम मिश्रित निर्यात केल्यावर नमुना बिट खोलीमध्ये रूपांतरित करते. रेकॉर्डिंग दरम्यान ओड्यासिटीचे डीफॉल्ट नमुना स्वरूप गुणवत्ता प्राधान्यांमध्ये कॉन्फिगर केले जाऊ शकते किंवा ध्वनी गीतपट्टा ड्रॉपडाउन मेनूमधील प्रत्येक गीतपट्टासाठी स्वतंत्रपणे सेट केले जाऊ शकते. प्लेबॅक दरम्यान, प्रकल्पातील भिन्न नमुना स्वरूप असलेल्या कोणत्याही गीतपट्टामधील ध्वनी गुणवत्ता प्राधान्यांमधील रीअल-टाइम रूपांतरण सेटिंग्जचा वापर करुन फ्लायवर पुन्हा तयार केला जाईल. प्रक्रिया करताना, मिश्रित करताना किंवा निर्यात करताना उच्च-गुणवत्तेची रूपांतरण सेटिंग्ज वापरली जातात.</t>
+  </si>
+  <si>
+    <t>ध्वनी धारिकांचा आकार</t>
+  </si>
+  <si>
+    <t>ध्वनी धारिका खूप मोठ्या असतात, आपण कार्य केलेल्या बर्‍याच धारिकापेक्षा कदाचित खूपच मोठ्या असतात (आपण चित्रफीत धारिकासह कार्य केल्याशिवाय).</t>
+  </si>
+  <si>
+    <t>संपूर्णपणे पूर्ण ७४-मिनिटांच्या स्टिरिओ ध्वनी सीडीमध्ये ६ अब्ज बिट जास्त लागतात.</t>
+  </si>
+  <si>
+    <t>बाइटची संख्या मिळविण्यासाठी हे ८ ने विभाजित करा; ध्वनी सीडी ८०० मेगाबाइट (एमबी) पेक्षा थोडी कमी आहे.</t>
+  </si>
+  <si>
+    <t>खालील संकुचित ध्वनी पहा.</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनीची एक मर्यादा ही आहे की बर्‍याच कारणांसाठी ते साउंड प्रेशर लाटा हाताळू शकत नाही जे हाताळण्यासाठी तयार केलेल्या कमाल पातळीपेक्षा जास्त आहे.</t>
+  </si>
+  <si>
+    <t>जेव्हा सिग्नल ध्वनिमुद्रण केला जातो जो +/- १.० रेषीय किंवा ० डीबीच्या कमाल पातळीपेक्षा जास्त असतो तेव्हा श्रेणीच्या बाहेरील नमुने जास्तीत जास्त मूल्यावर क्लीप केले जातात, याप्रमाणेः</t>
+  </si>
+  <si>
+    <t>क्लिपिंगसह ध्वनिमुद्रण केलेला आवाज विकृत आणि कठोर वाटेल.</t>
+  </si>
+  <si>
+    <t>आपल्या इनपुट स्त्रोतावरील (मायक्रोफोन, कॅसेट प्लेयर, रेकॉर्ड प्लेयर) व्हॉल्यूम बदला आणि ओड्यासिटीचे इनपुट व्हॉल्यूम नियंत्रण सेट करा (मिक्सर टूलबारमध्ये) जसे की वेपफॉर्म शक्य तितक्या मोठे आहे (जास्तीत जास्त विश्वासासाठी) क्लिपिंगशिवाय.</t>
+  </si>
+  <si>
+    <t>लक्षात ठेवा ओड्यासिटीच्या डीफॉल्ट ३२-बिट फ्लोट नमुना स्वरूपात, जास्तीत जास्तपेक्षा जास्त प्रमाणात कायदेशीररित्या कॅप्चर केलेले नमुने मूल्ये संग्रहित केली जाऊ शकतात परंतु जरी निर्यात ३२-बिट फ्लोट फाइलमध्ये जतन केली गेली तरीही ती अद्याप कोणत्याही पारंपारिक पुनरुत्पादनाच्या उपकरणांवर विकृत होऊ शकतात. जर ओड्यासिटीने मर्यादेपेक्षा जास्त वैध नमुने आढळले तर एम्प्लिफाई इफेक्ट नकारात्मक डीफॉल्ट "एम्प्लिफिकेशन (डीबी)" मूल्य दर्शवेल आणि आपण वेव्हफॉर्मची मूळ शिखरे गमावल्याशिवाय शिखर विस्तार वाढवण्यासाठी जास्तीत जास्त ० डीबी पर्यंत कमी करण्यासाठी या सेटिंगवर ओके क्लिक करू शकता.</t>
+  </si>
+  <si>
+    <t>संकुचित ध्वनी</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनी धारिका इतक्या मोठ्या असल्याने, शक्य तेव्हा कमी नमुना दर वापरले जायचे.</t>
+  </si>
+  <si>
+    <t>१९९१ मध्ये, एमपी ३ (एमपीईजी प्रथम, स्तर ३) मानकांनी सर्व काही बदलले.</t>
+  </si>
+  <si>
+    <t>एमपी ३ हे एक हानीकारक कॉम्प्रेशन तंत्र आहे जे गुणवत्तेवर आश्चर्यकारकपणे कमी प्रभाव टाकून डिजिटल ध्वनी धरिकेचे धारिका आकार नाटकीयरित्या कमी करू शकते.</t>
+  </si>
+  <si>
+    <t>सीडी-गुणवत्तेच्या ध्वनीचा एक सेकंद १.४ मेगाबिट घेते, तर एमपी ३ धारिकांसाठी सामान्य १२८ केबीपीएस आहे, जो १०x! पेक्षा जास्तचे कॉम्प्रेशन टक आहे</t>
+  </si>
+  <si>
+    <t>आमचे कान आणि मेंदू कसे कार्य करतात याबद्दलच्या मनोवैज्ञानिक मॉडेलच्या आधारे, मानवाकडे अत्यंत संवेदनशील नसलेल्या ध्वनी वेव्हफॉर्मविषयी तपशील हुशारीने "दूर फेकून" एमपी 3 कार्य करते.</t>
+  </si>
+  <si>
+    <t>सर्व एमपी 3 फायली एकसारख्या तयार केल्या जात नाहीत; भिन्न सायकोएकॉस्टिक मॉडेल ध्वनी धारिकामध्ये भिन्न प्रमाणात ज्ञात विकृती आणतील.</t>
+  </si>
+  <si>
+    <t>पाठवल्याप्रमाणे धृष्टता एमपी ३ फायली आयात करु शकते परंतु ऑड्यासिटीमधून एमपी ३ धारिका निर्यात करण्यासाठी कृपया आपल्या संगणकावर पर्यायी लॅमे एमपी ३ एन्कोडिंग लायब्ररी जोडा.</t>
+  </si>
+  <si>
+    <t>चांगल्या स्पीकर्ससह, बहुतेक लोक सीडीवरून १२८ केबीपीएस एमपी ३ आणि एक कंप्रप्रेसित ध्वनी धारिकामधील फरक ऐकू शकतात. २५६ केबीपीएस आणि ३२० केबीपीएस एमपी ३ फायली उच्च गुणवत्तेला प्राधान्य देणार्‍या ध्वनी धारिकामध्ये अधिक लोकप्रिय आहेत.</t>
+  </si>
+  <si>
+    <t>इतर बरेच हानीकारक संकुचित ध्वनी धारिका स्वरूप आहेत.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी संपूर्णपणे ओग व्हॉर्बिस स्वरूपनास समर्थन देते, जे एमपी ३ प्रमाणेच आहे परंतु पूर्णपणे मुक्त, पेटंट-मुक्त मानक आहे.</t>
+  </si>
+  <si>
+    <t>कालांतराने ओग व्हॉर्बिस धरिकेची गुणवत्ता एमपी ३ च्या गुणवत्तेला मागे टाकण्यासाठी आली आहे आणि त्याचे स्वरूप अधिक विस्तारनीय आहे म्हणून अधिक सुधारणा शक्य आहेत.</t>
+  </si>
+  <si>
+    <t>ओग व्हॉर्बिस आपल्या स्वतःच्या ध्वनीसाठी एक उत्तम निवड आहे, तथापि वास्तविकता अशी आहे की आयपॉड्स आणि इतर पोर्टेबल ऑडिओ प्लेयर्स सारख्या बर्‍याच उपकरणे एमपी ३ चे समर्थन करतात परंतु ओग व्हॉर्बिस अद्याप नाही.</t>
+  </si>
+  <si>
+    <t>इतर सुप्रसिद्ध कम्प्रेशन पद्धतींमध्ये एटीआरएसी, सोनी मिनीडिस्क ध्वनिमुद्रक, विंडोज मीडिया ऑडिओ (डब्ल्यूएमए) आणि एएसी यांचा समावेश आहे.  वैकल्पिक FFmpeg लायब्ररी जोडून अधिक स्वरूपाचे समर्थन करते.</t>
+  </si>
+  <si>
+    <t>नुकसान विरहित संकुचन</t>
+  </si>
+  <si>
+    <t>नुकसानविरहित संकुचन गुणवत्ता न गमावता धारिकाचा आकार कमी करते. धारिकाचे आकार कमी करण्याची ही जादूची पद्धत ध्वनी धारिकांवर लागू केली जाऊ शकते. एमपी ३ हानीकारक संकुचन वापरत असताना, नवीन संकुचन अल्गोरिदम, जसे की एफएलएसी आणि अँपल नुकसानविरहित संकुचन, नुकसानविरहित संकुचन केलेले ध्वनी धारिका तयार करण्यासाठी वापरले जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>मुळात अशा प्रकारचे संकुचन मूळ धरिकेचा डेटा अधिक कार्यक्षम मार्गाने पुन्हा लिहितात. तथापि, कोणतीही गुणवत्ता गमावली नसल्यामुळे, परिणामी धारिका हानीकारक संकुचनासह संकलित केलेल्या प्रतिमा आणि ध्वनी धारिकांपेक्षा जास्त मोठी असतात. उदाहरणार्थ, हानीकारक संकुचनाचा वापर करून संकुचित केलेली धारिका मूळ आकाराच्या दहाव्या आकाराची असू शकते, तर नुकसानविरहित संकुचन मूळ आकाराच्या अर्ध्यापेक्षा लहान धारिका तयार करण्याची शक्यता नसते.</t>
+  </si>
+  <si>
+    <t>दोषरहित ध्वनी स्वरूप बहुतेक वेळा संग्रहण किंवा उत्पादन हेतूसाठी वापरले जातात, तर लहान हानीकारक ध्वनी धारिका विशेषत: पोर्टेबल प्लेयर्सवर वापरल्या जातात आणि स्टोरेज स्पेस मर्यादित असल्यास किंवा ध्वनीची अचूक प्रतिकृती अनावश्यक असते.</t>
   </si>
 </sst>
 </file>
@@ -600,11 +591,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,11 +891,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -921,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -932,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -943,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -954,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -965,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -976,7 +974,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -987,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -998,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1009,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1017,10 +1015,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1028,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1039,10 +1037,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1050,10 +1048,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1061,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1072,10 +1070,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1083,10 +1081,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1094,10 +1092,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1105,10 +1103,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1116,10 +1114,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1127,10 +1125,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1138,10 +1136,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1149,10 +1147,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1160,10 +1158,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1171,10 +1169,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1182,10 +1180,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1193,10 +1191,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1204,10 +1202,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1215,32 +1213,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
+      <c r="B31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1248,10 +1246,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1259,10 +1257,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1270,10 +1268,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1281,10 +1279,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1292,271 +1290,271 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>123</v>
+        <v>33</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>124</v>
+      <c r="B37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>125</v>
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>132</v>
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" t="s">
-        <v>141</v>
+        <v>50</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>147</v>
@@ -1564,10 +1562,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
         <v>148</v>
@@ -1575,10 +1573,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
         <v>149</v>
@@ -1586,291 +1584,281 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>156</v>
+        <v>65</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" t="s">
-        <v>172</v>
+        <v>81</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" t="s">
-        <v>173</v>
+        <v>82</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>